--- a/BackLog/Plateforme d'aide hedi.xlsx
+++ b/BackLog/Plateforme d'aide hedi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{227E490B-AA2E-4F42-BC7D-505F3CDC0B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID Feature</t>
   </si>
@@ -33,9 +32,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>ID user story</t>
-  </si>
-  <si>
     <t>User story</t>
   </si>
   <si>
@@ -115,12 +111,72 @@
   </si>
   <si>
     <t>En tant qu'un administrateur , je peux consulter la liste des  catégories</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>ID story</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -158,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,17 +229,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -213,19 +258,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -262,34 +294,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -402,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -596,308 +694,293 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="99.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="19">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="19"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="19"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9">
-        <v>2.11</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="19"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9">
-        <v>2.13</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9">
-        <v>2.14</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9">
-        <v>2.15</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="19"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9">
-        <v>2.16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="19"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="19"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="19"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="19"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9">
-        <v>2.21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="A2:A22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>